--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BNDCCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BNDCCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>BNDCCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2419.8718363103467</v>
       </c>
       <c r="C2" t="n">
-        <v>203.7750748474334</v>
+        <v>2149.5226533296163</v>
       </c>
       <c r="D2" t="n">
-        <v>186.82089461082344</v>
-      </c>
-      <c r="E2" t="n">
-        <v>220.72925508404333</v>
+        <v>2690.221019291077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2482.2742255126223</v>
       </c>
       <c r="C3" t="n">
-        <v>226.16848235098212</v>
+        <v>2072.453738215586</v>
       </c>
       <c r="D3" t="n">
-        <v>203.78904442223865</v>
-      </c>
-      <c r="E3" t="n">
-        <v>248.5479202797256</v>
+        <v>2892.0947128096586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2468.114253569057</v>
       </c>
       <c r="C4" t="n">
-        <v>208.72723326967892</v>
+        <v>1974.027629301389</v>
       </c>
       <c r="D4" t="n">
-        <v>182.8944690439258</v>
-      </c>
-      <c r="E4" t="n">
-        <v>234.55999749543204</v>
+        <v>2962.200877836725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2513.7075863119494</v>
       </c>
       <c r="C5" t="n">
-        <v>211.02892404631808</v>
+        <v>1934.0030544193328</v>
       </c>
       <c r="D5" t="n">
-        <v>182.79365468030363</v>
-      </c>
-      <c r="E5" t="n">
-        <v>239.26419341233253</v>
+        <v>3093.412118204566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2511.86533903969</v>
       </c>
       <c r="C6" t="n">
-        <v>195.35510497647857</v>
+        <v>1868.0544589325232</v>
       </c>
       <c r="D6" t="n">
-        <v>165.37880693967494</v>
-      </c>
-      <c r="E6" t="n">
-        <v>225.3314030132822</v>
+        <v>3155.6762191468565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2569.431496958055</v>
       </c>
       <c r="C7" t="n">
-        <v>218.9274613494193</v>
+        <v>1859.2629407070979</v>
       </c>
       <c r="D7" t="n">
-        <v>187.6600509145137</v>
-      </c>
-      <c r="E7" t="n">
-        <v>250.1948717843249</v>
+        <v>3279.600053209012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2559.3838053094914</v>
       </c>
       <c r="C8" t="n">
-        <v>202.5275704370295</v>
+        <v>1794.9011789874044</v>
       </c>
       <c r="D8" t="n">
-        <v>170.2887126816002</v>
-      </c>
-      <c r="E8" t="n">
-        <v>234.76642819245882</v>
+        <v>3323.8664316315785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2601.4804381983226</v>
       </c>
       <c r="C9" t="n">
-        <v>205.74908637667335</v>
+        <v>1781.2455724035403</v>
       </c>
       <c r="D9" t="n">
-        <v>172.77216554320503</v>
-      </c>
-      <c r="E9" t="n">
-        <v>238.72600721014166</v>
+        <v>3421.715303993105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2602.611458551876</v>
       </c>
       <c r="C10" t="n">
-        <v>190.8877431251964</v>
+        <v>1734.227935048241</v>
       </c>
       <c r="D10" t="n">
-        <v>157.34625640129147</v>
-      </c>
-      <c r="E10" t="n">
-        <v>224.42922984910135</v>
+        <v>3470.9949820555107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2657.6494268218107</v>
       </c>
       <c r="C11" t="n">
-        <v>215.17775431121893</v>
+        <v>1740.3882415312808</v>
       </c>
       <c r="D11" t="n">
-        <v>181.20230323283423</v>
-      </c>
-      <c r="E11" t="n">
-        <v>249.15320538960364</v>
+        <v>3574.9106121123405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2649.7514719957708</v>
       </c>
       <c r="C12" t="n">
-        <v>199.41176341049646</v>
+        <v>1688.7345299339954</v>
       </c>
       <c r="D12" t="n">
-        <v>165.1015415726934</v>
-      </c>
-      <c r="E12" t="n">
-        <v>233.72198524829952</v>
+        <v>3610.768414057546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2690.0201690693493</v>
       </c>
       <c r="C13" t="n">
-        <v>203.19319926911388</v>
+        <v>1685.0029207993189</v>
       </c>
       <c r="D13" t="n">
-        <v>168.62403800710328</v>
-      </c>
-      <c r="E13" t="n">
-        <v>237.76236053112447</v>
+        <v>3695.0374173393798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2692.7054956568904</v>
       </c>
       <c r="C14" t="n">
-        <v>188.82642978304645</v>
+        <v>1647.2941371824907</v>
       </c>
       <c r="D14" t="n">
-        <v>154.05658112109617</v>
-      </c>
-      <c r="E14" t="n">
-        <v>223.59627844499673</v>
+        <v>3738.1168541312904</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2746.4218267835213</v>
       </c>
       <c r="C15" t="n">
-        <v>213.55329488539283</v>
+        <v>1660.6801698817135</v>
       </c>
       <c r="D15" t="n">
-        <v>178.62766917175438</v>
-      </c>
-      <c r="E15" t="n">
-        <v>248.47892059903128</v>
+        <v>3832.163483685329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2739.6476689933324</v>
       </c>
       <c r="C16" t="n">
-        <v>198.17317431899633</v>
+        <v>1616.2046214428033</v>
       </c>
       <c r="D16" t="n">
-        <v>163.126490975037</v>
-      </c>
-      <c r="E16" t="n">
-        <v>233.21985766295566</v>
+        <v>3863.0907165438616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2778.960793817609</v>
       </c>
       <c r="C17" t="n">
-        <v>202.29544703256488</v>
+        <v>1618.0674396908732</v>
       </c>
       <c r="D17" t="n">
-        <v>167.15460319031806</v>
-      </c>
-      <c r="E17" t="n">
-        <v>237.4362908748117</v>
+        <v>3939.8541479443447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2782.458649976333</v>
       </c>
       <c r="C18" t="n">
-        <v>188.22973661053743</v>
+        <v>1586.089530227269</v>
       </c>
       <c r="D18" t="n">
-        <v>153.01560286027242</v>
-      </c>
-      <c r="E18" t="n">
-        <v>223.44387036080244</v>
+        <v>3978.8277697253975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2835.484081692136</v>
       </c>
       <c r="C19" t="n">
-        <v>213.222525302789</v>
+        <v>1603.9976371422158</v>
       </c>
       <c r="D19" t="n">
-        <v>177.95131595019538</v>
-      </c>
-      <c r="E19" t="n">
-        <v>248.4937346553826</v>
+        <v>4066.9705262420557</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2829.2974003616505</v>
       </c>
       <c r="C20" t="n">
-        <v>198.07729338156113</v>
+        <v>1564.2170999170808</v>
       </c>
       <c r="D20" t="n">
-        <v>162.76161725555485</v>
-      </c>
-      <c r="E20" t="n">
-        <v>233.39296950756741</v>
+        <v>4094.3777008062198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2868.110989963728</v>
       </c>
       <c r="C21" t="n">
-        <v>202.4070417675543</v>
+        <v>1569.8509666385899</v>
       </c>
       <c r="D21" t="n">
-        <v>167.0567111602655</v>
-      </c>
-      <c r="E21" t="n">
-        <v>237.75737237484307</v>
+        <v>4166.371013288866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2872.0336043133475</v>
       </c>
       <c r="C22" t="n">
-        <v>188.52459331043423</v>
+        <v>1541.798757258898</v>
       </c>
       <c r="D22" t="n">
-        <v>153.14724857940755</v>
-      </c>
-      <c r="E22" t="n">
-        <v>223.9019380414609</v>
+        <v>4202.268451367798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2924.6978612556504</v>
       </c>
       <c r="C23" t="n">
-        <v>213.67925615105818</v>
+        <v>1562.9251891182057</v>
       </c>
       <c r="D23" t="n">
-        <v>178.28084910552226</v>
-      </c>
-      <c r="E23" t="n">
-        <v>249.0776631965941</v>
+        <v>4286.470533393095</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2918.818289287171</v>
       </c>
       <c r="C24" t="n">
-        <v>198.67700665351293</v>
+        <v>1526.4828069937191</v>
       </c>
       <c r="D24" t="n">
-        <v>163.26217532402478</v>
-      </c>
-      <c r="E24" t="n">
-        <v>234.09183798300108</v>
+        <v>4311.153771580623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2957.3707417136984</v>
       </c>
       <c r="C25" t="n">
-        <v>203.13305052082723</v>
+        <v>1534.9118966248934</v>
       </c>
       <c r="D25" t="n">
-        <v>167.7054101239448</v>
-      </c>
-      <c r="E25" t="n">
-        <v>238.56069091770965</v>
+        <v>4379.829586802503</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2961.5154027766093</v>
       </c>
       <c r="C26" t="n">
-        <v>189.36215807311956</v>
+        <v>1509.738978545174</v>
       </c>
       <c r="D26" t="n">
-        <v>153.92452715659996</v>
-      </c>
-      <c r="E26" t="n">
-        <v>224.79978898963915</v>
+        <v>4413.291827008045</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3013.990851891074</v>
       </c>
       <c r="C27" t="n">
-        <v>214.61535763972802</v>
+        <v>1533.326441288791</v>
       </c>
       <c r="D27" t="n">
-        <v>179.16993399690026</v>
-      </c>
-      <c r="E27" t="n">
-        <v>250.06078128255578</v>
+        <v>4494.6552624933565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3008.2718245004653</v>
       </c>
       <c r="C28" t="n">
-        <v>199.70014501647466</v>
+        <v>1499.398235159556</v>
       </c>
       <c r="D28" t="n">
-        <v>164.24864261699034</v>
-      </c>
-      <c r="E28" t="n">
-        <v>235.151647415959</v>
+        <v>4517.145413841375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3046.6877647824545</v>
       </c>
       <c r="C29" t="n">
-        <v>204.23306801094515</v>
+        <v>1510.017697041048</v>
       </c>
       <c r="D29" t="n">
-        <v>168.776823641546</v>
-      </c>
-      <c r="E29" t="n">
-        <v>239.6893123803443</v>
+        <v>4583.357832523861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3050.948503048678</v>
       </c>
       <c r="C30" t="n">
-        <v>190.5300824158258</v>
+        <v>1487.0637191850467</v>
       </c>
       <c r="D30" t="n">
-        <v>155.07013876465626</v>
-      </c>
-      <c r="E30" t="n">
-        <v>225.99002606699534</v>
+        <v>4614.83328691231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3103.325250929091</v>
       </c>
       <c r="C31" t="n">
-        <v>215.84326368096586</v>
+        <v>1512.6179046760997</v>
       </c>
       <c r="D31" t="n">
-        <v>180.3804340891048</v>
-      </c>
-      <c r="E31" t="n">
-        <v>251.30609327282693</v>
+        <v>4694.032597182082</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3097.690149867902</v>
       </c>
       <c r="C32" t="n">
-        <v>200.9810325171913</v>
+        <v>1480.66648953783</v>
       </c>
       <c r="D32" t="n">
-        <v>165.51595145483628</v>
-      </c>
-      <c r="E32" t="n">
-        <v>236.4461135795463</v>
+        <v>4714.713810197974</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3136.0347270221905</v>
       </c>
       <c r="C33" t="n">
-        <v>205.5607537037306</v>
+        <v>1493.0648489353812</v>
       </c>
       <c r="D33" t="n">
-        <v>170.09391612567848</v>
-      </c>
-      <c r="E33" t="n">
-        <v>241.02759128178272</v>
+        <v>4779.004605108999</v>
       </c>
     </row>
   </sheetData>
